--- a/statistics/HistoricalDistanceData/historical_distance/Q3586550-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q3586550-en.xlsx
@@ -31,31 +31,31 @@
     <t>uri</t>
   </si>
   <si>
+    <t>New French Polynesian assembly to elect assembly president</t>
+  </si>
+  <si>
+    <t>France comments on Tahiti impasse, presidential elections in four days</t>
+  </si>
+  <si>
     <t>Gaston Flosse re-elected as French Polynesia leader</t>
   </si>
   <si>
-    <t>France comments on Tahiti impasse, presidential elections in four days</t>
-  </si>
-  <si>
-    <t>New French Polynesian assembly to elect assembly president</t>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2008-02-23T00:00:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.rnzi.com/pages/news.php?op=read&amp;id=38181</t>
+  </si>
+  <si>
+    <t>http://www.rnzi.com/pages/news.php?op=read&amp;id=38148</t>
+  </si>
+  <si>
     <t>http://afp.google.com/article/ALeqM5ildM9THpbrqT1lKIvcd10o1_Mj-g</t>
-  </si>
-  <si>
-    <t>http://www.rnzi.com/pages/news.php?op=read&amp;id=38148</t>
-  </si>
-  <si>
-    <t>http://www.rnzi.com/pages/news.php?op=read&amp;id=38181</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
